--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,136 +40,151 @@
     <t>name</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>okay</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>instructions</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>balls</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>doll</t>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>short</t>
@@ -181,37 +196,73 @@
     <t>part</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>money</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>price</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>negative</t>
@@ -226,91 +277,121 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>loves</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>helicopter</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>stores</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>helicopter</t>
+    <t>great</t>
   </si>
   <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wonderful</t>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>bean</t>
   </si>
   <si>
     <t>lego</t>
   </si>
   <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>thomas</t>
+    <t>strategy</t>
   </si>
   <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
+    <t>challenging</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>best</t>
+    <t>lots</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>lots</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -671,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>0.9148936170212766</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -782,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -840,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <v>0.8888888888888888</v>
@@ -890,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9757281553398058</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9731182795698925</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="C7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K7">
-        <v>0.8709677419354839</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9516129032258065</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>0.8615384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9140625</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="C10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>0.859375</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1140,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9090909090909091</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>0.8571428571428571</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9074074074074074</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K12">
-        <v>0.8340248962655602</v>
+        <v>0.8070539419087137</v>
       </c>
       <c r="L12">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="M12">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9074074074074074</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8947368421052632</v>
+        <v>0.9140625</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>0.7790530846484935</v>
+        <v>0.7690100430416069</v>
       </c>
       <c r="L14">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M14">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,16 +1442,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="K15">
-        <v>0.7678571428571429</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8688524590163934</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K16">
-        <v>0.7636363636363637</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8412698412698413</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>0.7419354838709677</v>
+        <v>0.7155963302752294</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8157894736842105</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,16 +1592,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8104265402843602</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="C19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>0.691131498470948</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L19">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.8103448275862069</v>
+        <v>0.8199052132701422</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.5852459016393443</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>714</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>714</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7702702702702703</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>0.6024096385542169</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.765625</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,16 +1792,16 @@
         <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="K22">
-        <v>0.5898277276456112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>719</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>720</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>500</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,16 +1842,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="K23">
-        <v>0.5797101449275363</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7428571428571429</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7228915662650602</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1858,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K25">
-        <v>0.4571428571428571</v>
+        <v>0.5120481927710844</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7105263157894737</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K26">
-        <v>0.4528301886792453</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6984126984126984</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="K27">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6888888888888889</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2008,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="K28">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>0.403899721448468</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>214</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6707317073170732</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K30">
-        <v>0.2660609993510707</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="L30">
-        <v>410</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>410</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2132,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2140,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6607142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="K31">
-        <v>0.1916666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6521739130434783</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2208,31 +2289,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K32">
-        <v>0.1710526315789474</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L32">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>945</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6190476190476191</v>
+        <v>0.6875</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2258,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K33">
-        <v>0.1557377049180328</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2290,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6190476190476191</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2308,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K34">
-        <v>0.0625</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2332,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>270</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2340,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6134453781512605</v>
+        <v>0.6494845360824743</v>
       </c>
       <c r="C35">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D35">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2358,7 +2439,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35">
+        <v>0.2913692407527579</v>
+      </c>
+      <c r="L35">
+        <v>449</v>
+      </c>
+      <c r="M35">
+        <v>449</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1092</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2366,13 +2471,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6111111111111112</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2384,7 +2489,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36">
+        <v>0.2786885245901639</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2392,13 +2521,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6089108910891089</v>
+        <v>0.64</v>
       </c>
       <c r="C37">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2410,7 +2539,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37">
+        <v>0.2366345311130587</v>
+      </c>
+      <c r="L37">
+        <v>270</v>
+      </c>
+      <c r="M37">
+        <v>270</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>871</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2418,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="C38">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2436,7 +2589,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38">
+        <v>0.208</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2444,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5876288659793815</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2462,7 +2639,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2470,13 +2671,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5797101449275363</v>
+        <v>0.6115942028985507</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D40">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2488,7 +2689,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2496,13 +2721,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2514,7 +2739,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K41">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2522,13 +2771,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5126582278481012</v>
+        <v>0.5841584158415841</v>
       </c>
       <c r="C42">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="D42">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2540,7 +2789,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42">
+        <v>0.0748663101604278</v>
+      </c>
+      <c r="L42">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>28</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2548,13 +2821,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4791666666666667</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2566,7 +2839,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2574,13 +2871,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4642857142857143</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2592,7 +2889,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44">
+        <v>0.02393617021276596</v>
+      </c>
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2600,13 +2921,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3956043956043956</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2618,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2626,13 +2947,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3837209302325582</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2644,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2652,13 +2973,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3673469387755102</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2670,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2678,13 +2999,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3378378378378378</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2696,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2704,13 +3025,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3333333333333333</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2722,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2730,13 +3051,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2681159420289855</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2748,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>202</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2756,7 +3077,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2380952380952381</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C51">
         <v>15</v>
@@ -2774,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2782,13 +3103,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.23</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2800,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2808,13 +3129,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2247191011235955</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2826,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2834,13 +3155,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1993670886075949</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C54">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2852,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2860,13 +3181,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1475409836065574</v>
+        <v>0.375</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2878,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2886,13 +3207,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.06624605678233439</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2904,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>296</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2912,13 +3233,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.05726872246696035</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2930,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>428</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2938,13 +3259,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05044510385756677</v>
+        <v>0.3196202531645569</v>
       </c>
       <c r="C58">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2956,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>640</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2964,13 +3285,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04885496183206107</v>
+        <v>0.3152173913043478</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2982,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>623</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2990,25 +3311,467 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.04597701149425287</v>
+        <v>0.305</v>
       </c>
       <c r="C60">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="C61">
         <v>16</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>16</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>332</v>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.2046783625730994</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.1910112359550562</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.188034188034188</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.1834862385321101</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.171875</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>22</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.1693989071038251</v>
+      </c>
+      <c r="C67">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.1439169139465875</v>
+      </c>
+      <c r="C68">
+        <v>97</v>
+      </c>
+      <c r="D68">
+        <v>97</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.1408045977011494</v>
+      </c>
+      <c r="C69">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.1259842519685039</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.1167192429022082</v>
+      </c>
+      <c r="C71">
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.1145374449339207</v>
+      </c>
+      <c r="C72">
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.09312977099236641</v>
+      </c>
+      <c r="C73">
+        <v>61</v>
+      </c>
+      <c r="D73">
+        <v>61</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.08673469387755102</v>
+      </c>
+      <c r="C74">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.07009345794392523</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.06018518518518518</v>
+      </c>
+      <c r="C76">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>28</v>
+      </c>
+      <c r="E76">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F76">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.03935185185185185</v>
+      </c>
+      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>0.06</v>
+      </c>
+      <c r="F77">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
